--- a/Original_Excel_Files/M.xlsx
+++ b/Original_Excel_Files/M.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B17470-C660-4498-A00F-D1ED8AE6343C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C806DC5-A88A-45D7-879A-FCCFC4A1EB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29895" yWindow="1110" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,29 +17,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>ML160 .L34 1971</t>
   </si>
   <si>
-    <t>Hindley</t>
-  </si>
-  <si>
-    <t>Geoffry Ed.</t>
-  </si>
-  <si>
     <t>The Larousse Encyclopedia of Music</t>
   </si>
   <si>
     <t>ME2054 .R4 M39 1961</t>
   </si>
   <si>
-    <t>Mayor</t>
-  </si>
-  <si>
-    <t>Hyatt</t>
-  </si>
-  <si>
     <t>1963 P</t>
   </si>
   <si>
@@ -49,12 +37,6 @@
     <t>ML160 .F35 1938</t>
   </si>
   <si>
-    <t>Ferguson</t>
-  </si>
-  <si>
-    <t>Donald N.</t>
-  </si>
-  <si>
     <t>1938 H</t>
   </si>
   <si>
@@ -64,12 +46,6 @@
     <t>ML385 .S372</t>
   </si>
   <si>
-    <t>Scherchen</t>
-  </si>
-  <si>
-    <t>Hermann</t>
-  </si>
-  <si>
     <t>1950 H</t>
   </si>
   <si>
@@ -79,24 +55,12 @@
     <t>ML3853 .C7 1963</t>
   </si>
   <si>
-    <t>Copland</t>
-  </si>
-  <si>
-    <t>Aaron</t>
-  </si>
-  <si>
     <t>Music &amp; Imagination</t>
   </si>
   <si>
     <t>ML3928 .S36</t>
   </si>
   <si>
-    <t>Scholes</t>
-  </si>
-  <si>
-    <t>Percy A.</t>
-  </si>
-  <si>
     <t>1928 H</t>
   </si>
   <si>
@@ -106,12 +70,6 @@
     <t>ML410.B4A23 H3</t>
   </si>
   <si>
-    <t>Beethoven</t>
-  </si>
-  <si>
-    <t>Ludwig van</t>
-  </si>
-  <si>
     <t>1960 P</t>
   </si>
   <si>
@@ -121,12 +79,6 @@
     <t>MT1 .R435</t>
   </si>
   <si>
-    <t>Reimer</t>
-  </si>
-  <si>
-    <t>Bennett</t>
-  </si>
-  <si>
     <t>1970 H</t>
   </si>
   <si>
@@ -136,12 +88,6 @@
     <t>MT35 .H6</t>
   </si>
   <si>
-    <t>Hindemith</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
     <t>1946 P</t>
   </si>
   <si>
@@ -160,12 +106,6 @@
     <t>MT870 .D374</t>
   </si>
   <si>
-    <t>DeLone</t>
-  </si>
-  <si>
-    <t>Richard P.</t>
-  </si>
-  <si>
     <t>1981 P</t>
   </si>
   <si>
@@ -175,12 +115,6 @@
     <t>ML420 .B114 A3 1971</t>
   </si>
   <si>
-    <t>Baez</t>
-  </si>
-  <si>
-    <t>Joan</t>
-  </si>
-  <si>
     <t>1971 P</t>
   </si>
   <si>
@@ -190,18 +124,12 @@
     <t>M2115 .P72 1986</t>
   </si>
   <si>
-    <t>Wren, Brian</t>
-  </si>
-  <si>
     <t>Praising a Mystery</t>
   </si>
   <si>
     <t>ML275.5 .K38</t>
   </si>
   <si>
-    <t>Kater, Michael H.</t>
-  </si>
-  <si>
     <t>The Twisted Muse</t>
   </si>
   <si>
@@ -214,45 +142,27 @@
     <t>ML410 .B4 A23H3</t>
   </si>
   <si>
-    <t>Hamburger, Michael ed.</t>
-  </si>
-  <si>
     <t>Beethoven: Letters, Journals and COnversations</t>
   </si>
   <si>
     <t>ML410 .B4 S9</t>
   </si>
   <si>
-    <t>Sullivan, J. W. N.</t>
-  </si>
-  <si>
     <t>Beethoven: His Spiritual Development</t>
   </si>
   <si>
     <t>ML60 .B47</t>
   </si>
   <si>
-    <t>Bernstein, Leonard</t>
-  </si>
-  <si>
     <t>The Joy of Music</t>
   </si>
   <si>
     <t>MT6 .M134 1955</t>
   </si>
   <si>
-    <t>Machlis, Joseph</t>
-  </si>
-  <si>
     <t>The Enjoyment of Music: An Introduction to Perceptive Listening</t>
   </si>
   <si>
-    <t>Manheim</t>
-  </si>
-  <si>
-    <t>Karl</t>
-  </si>
-  <si>
     <t>1936 P</t>
   </si>
   <si>
@@ -260,13 +170,22 @@
   </si>
   <si>
     <t>HM24 .M2613 1985  </t>
+  </si>
+  <si>
+    <t>LCC</t>
+  </si>
+  <si>
+    <t>Yr.</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,14 +216,6 @@
       <color rgb="FF666666"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -339,46 +250,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -715,482 +621,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="11"/>
+    <col min="3" max="3" width="55.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" t="s">
-        <v>76</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="12">
         <v>1986</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1971</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1971</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1996</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1992</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
+      <c r="B12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="10" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="1">
-        <v>1971</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="17">
-        <v>1971</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1996</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="16">
-        <v>1992</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="B13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1960</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="15">
+        <v>1960</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="10" t="s">
+      <c r="B16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="C16" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="12">
+        <v>1967</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="10" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="B20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="10" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="10" t="s">
+      <c r="B21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="C21" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1960</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1960</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="12">
+        <v>1955</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B23" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1967</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1955</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:I38">
-    <sortCondition ref="A1:A38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E39">
+    <sortCondition ref="A2:A39"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="http://unistar.uni.edu/search~S1?/cHM24+.M2613+1985/chm+++24+m2613+1985/-3,-1,,E/browse" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
